--- a/medicine/Handicap/Paul_Letondal/Paul_Letondal.xlsx
+++ b/medicine/Handicap/Paul_Letondal/Paul_Letondal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Letondal, né Paul-Adonis Letondal, le 25 janvier 1831 à Montbenoît[1] et mort le 24 juillet 1894 à Cacouna, est un pianiste, organiste, violoncelliste, compositeur et professeur de musique québécois d'origine française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Letondal, né Paul-Adonis Letondal, le 25 janvier 1831 à Montbenoît et mort le 24 juillet 1894 à Cacouna, est un pianiste, organiste, violoncelliste, compositeur et professeur de musique québécois d'origine française.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Letondal était atteint de cécité dès son enfance et devint progressivement aveugle. Il reçut sa formation à l'Institut des jeunes aveugles de Paris où il étudia l'orgue, la composition, la violoncelle et le piano[2]. À cet institut, la toute nouvelle méthode braille était utilisée[réf. nécessaire]. Il travailla le piano avec l'un de ses disciples Kalkbrenner[2].
-Letondal arriva à Montréal en 1852. Les Jésuites lui proposèrent de devenir professeur de musique au collège Sainte-Marie et, plus tard, organiste à l'église du Gesù jusqu'en 1869[2]. Il eut pour élèves Édouard Clarke, Euphémie Coderre, Dominique Ducharme, Gustave Gagnon, Calixa Lavallée, Clarence Lucas, Salomon Mazurette, Charles-Marie Panneton et Joseph Saucier.
-Il fut membre fondateur de l'Académie de musique du Québec, et vraisemblablement le premier musicien aveugle à se fixer au Canada[2]; il a eu un rôle important dans le développement de la musique classique à Montréal au XIXe siècle.
-En parallèle à sa carrière musicale, Paul Letondal participa à la fondation de la Revue Canadienne[2].
-Il est mort le 24 juillet 1894 à Cacouna[3]. Ses funérailles ont lieu à sa résidence à Montréal le 27 juillet 1894[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Letondal était atteint de cécité dès son enfance et devint progressivement aveugle. Il reçut sa formation à l'Institut des jeunes aveugles de Paris où il étudia l'orgue, la composition, la violoncelle et le piano. À cet institut, la toute nouvelle méthode braille était utilisée[réf. nécessaire]. Il travailla le piano avec l'un de ses disciples Kalkbrenner.
+Letondal arriva à Montréal en 1852. Les Jésuites lui proposèrent de devenir professeur de musique au collège Sainte-Marie et, plus tard, organiste à l'église du Gesù jusqu'en 1869. Il eut pour élèves Édouard Clarke, Euphémie Coderre, Dominique Ducharme, Gustave Gagnon, Calixa Lavallée, Clarence Lucas, Salomon Mazurette, Charles-Marie Panneton et Joseph Saucier.
+Il fut membre fondateur de l'Académie de musique du Québec, et vraisemblablement le premier musicien aveugle à se fixer au Canada; il a eu un rôle important dans le développement de la musique classique à Montréal au XIXe siècle.
+En parallèle à sa carrière musicale, Paul Letondal participa à la fondation de la Revue Canadienne.
+Il est mort le 24 juillet 1894 à Cacouna. Ses funérailles ont lieu à sa résidence à Montréal le 27 juillet 1894.
 Paul Letondal est le père du musicien Arthur Letondal et le grand-père d'Henri Letondal (comédien de théâtre).
 </t>
         </is>
